--- a/Zeiterfassung/data/user_data.xlsx
+++ b/Zeiterfassung/data/user_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Micha Becker\Zeiterfassung\Zeiterfassung\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A657E255-3325-441B-BC5C-08461F55715D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B18274-1E81-462C-9E7B-A8A76FD5D6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8310" yWindow="4410" windowWidth="28800" windowHeight="15435" xr2:uid="{3FFF041A-3F01-4CB4-8F05-C57F58D6DBC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Deborah</t>
   </si>
@@ -56,13 +56,19 @@
     <t>gehalt</t>
   </si>
   <si>
-    <t>TelefonNummer</t>
-  </si>
-  <si>
-    <t>Adresse</t>
-  </si>
-  <si>
-    <t>Stadt</t>
+    <t>Im Garten</t>
+  </si>
+  <si>
+    <t>Im Haus</t>
+  </si>
+  <si>
+    <t>Daheim</t>
+  </si>
+  <si>
+    <t>adresse</t>
+  </si>
+  <si>
+    <t>telefonNummer</t>
   </si>
 </sst>
 </file>
@@ -124,15 +130,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA692F5A-2943-4819-9ACD-704932C5C973}" name="Tabelle1" displayName="Tabelle1" ref="A1:F20" totalsRowShown="0">
-  <autoFilter ref="A1:F20" xr:uid="{EA692F5A-2943-4819-9ACD-704932C5C973}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA692F5A-2943-4819-9ACD-704932C5C973}" name="Tabelle1" displayName="Tabelle1" ref="A1:E20" totalsRowShown="0">
+  <autoFilter ref="A1:E20" xr:uid="{EA692F5A-2943-4819-9ACD-704932C5C973}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DF873A0A-07C2-4059-9F70-F1FB91C6F893}" name="username"/>
     <tableColumn id="2" xr3:uid="{F0BE5A97-0094-4ABC-9920-94A3261FF97F}" name="password"/>
     <tableColumn id="3" xr3:uid="{38D38EC1-1CB8-4866-98B7-F08695FA6E14}" name="gehalt"/>
-    <tableColumn id="4" xr3:uid="{F587CDB2-C920-4B98-BF4D-CA1DA150DD71}" name="TelefonNummer"/>
-    <tableColumn id="5" xr3:uid="{4462FCA8-A52A-4E49-B7F8-5B2EBAD9249C}" name="Adresse"/>
-    <tableColumn id="6" xr3:uid="{2D9E3D4D-1D1A-4B5C-B1E5-670D680411E0}" name="Stadt"/>
+    <tableColumn id="4" xr3:uid="{F587CDB2-C920-4B98-BF4D-CA1DA150DD71}" name="telefonNummer"/>
+    <tableColumn id="5" xr3:uid="{4462FCA8-A52A-4E49-B7F8-5B2EBAD9249C}" name="adresse"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -455,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A60BDEE-FC1C-44CF-87A6-B9879E0093AA}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +476,7 @@
     <col min="6" max="6" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -482,16 +487,13 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -501,8 +503,14 @@
       <c r="C2">
         <v>10</v>
       </c>
+      <c r="D2">
+        <v>1234556</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -512,8 +520,14 @@
       <c r="C3">
         <v>80</v>
       </c>
+      <c r="D3">
+        <v>123456666</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -522,6 +536,12 @@
       </c>
       <c r="C4">
         <v>30</v>
+      </c>
+      <c r="D4">
+        <v>12344444</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Zeiterfassung/data/user_data.xlsx
+++ b/Zeiterfassung/data/user_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Micha Becker\Zeiterfassung\Zeiterfassung\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B18274-1E81-462C-9E7B-A8A76FD5D6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBC50F0-0314-456E-B50B-4832094F26DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8310" yWindow="4410" windowWidth="28800" windowHeight="15435" xr2:uid="{3FFF041A-3F01-4CB4-8F05-C57F58D6DBC8}"/>
+    <workbookView xWindow="6240" yWindow="3810" windowWidth="28800" windowHeight="15435" xr2:uid="{3FFF041A-3F01-4CB4-8F05-C57F58D6DBC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,17 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Deborah</t>
   </si>
   <si>
-    <t>Micha</t>
-  </si>
-  <si>
-    <t>Marlies</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
@@ -56,19 +50,49 @@
     <t>gehalt</t>
   </si>
   <si>
-    <t>Im Garten</t>
-  </si>
-  <si>
-    <t>Im Haus</t>
-  </si>
-  <si>
-    <t>Daheim</t>
-  </si>
-  <si>
     <t>adresse</t>
   </si>
   <si>
     <t>telefonNummer</t>
+  </si>
+  <si>
+    <t>Luisa</t>
+  </si>
+  <si>
+    <t>Clara</t>
+  </si>
+  <si>
+    <t>Prisca</t>
+  </si>
+  <si>
+    <t>Aitana</t>
+  </si>
+  <si>
+    <t>Vivien</t>
+  </si>
+  <si>
+    <t>Elena</t>
+  </si>
+  <si>
+    <t>Hauptstraße 24, 10115 Berlin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hafenstraße 12, 20457 Hamburg</t>
+  </si>
+  <si>
+    <t>Königsallee 55, 40212 Düsseldorf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bahnhofstraße 8, 80335 München</t>
+  </si>
+  <si>
+    <t>Karl-Marx-Straße 17, 14482 Potsdam</t>
+  </si>
+  <si>
+    <t>Ludwigstraße 20, 80539 München</t>
+  </si>
+  <si>
+    <t>Berliner Allee 44, 30175 Hannover</t>
   </si>
 </sst>
 </file>
@@ -460,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A60BDEE-FC1C-44CF-87A6-B9879E0093AA}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,25 +496,25 @@
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" customWidth="1"/>
     <col min="4" max="4" width="35.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="5" max="5" width="66.85546875" customWidth="1"/>
     <col min="6" max="6" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -498,50 +522,118 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1234</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D2">
-        <v>1234556</v>
+        <v>175632</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>5678</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="D3">
-        <v>123456666</v>
+        <v>765890</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>1234</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>12344444</v>
+        <v>876123</v>
       </c>
       <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>8</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>900211</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>345000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>902834</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>697982</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Zeiterfassung/data/user_data.xlsx
+++ b/Zeiterfassung/data/user_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Micha Becker\Zeiterfassung\Zeiterfassung\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1966BA26-A8CD-49B5-94E2-485A4037245C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A657E255-3325-441B-BC5C-08461F55715D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="4455" windowWidth="28800" windowHeight="15435" xr2:uid="{3FFF041A-3F01-4CB4-8F05-C57F58D6DBC8}"/>
+    <workbookView xWindow="8310" yWindow="4410" windowWidth="28800" windowHeight="15435" xr2:uid="{3FFF041A-3F01-4CB4-8F05-C57F58D6DBC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>PersNr</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Deborah</t>
   </si>
@@ -54,16 +51,34 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>gehalt</t>
+  </si>
+  <si>
+    <t>TelefonNummer</t>
+  </si>
+  <si>
+    <t>Adresse</t>
+  </si>
+  <si>
+    <t>Stadt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -109,12 +124,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA692F5A-2943-4819-9ACD-704932C5C973}" name="Tabelle1" displayName="Tabelle1" ref="A1:C20" totalsRowShown="0">
-  <autoFilter ref="A1:C20" xr:uid="{EA692F5A-2943-4819-9ACD-704932C5C973}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA692F5A-2943-4819-9ACD-704932C5C973}" name="Tabelle1" displayName="Tabelle1" ref="A1:F20" totalsRowShown="0">
+  <autoFilter ref="A1:F20" xr:uid="{EA692F5A-2943-4819-9ACD-704932C5C973}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{DF873A0A-07C2-4059-9F70-F1FB91C6F893}" name="username"/>
     <tableColumn id="2" xr3:uid="{F0BE5A97-0094-4ABC-9920-94A3261FF97F}" name="password"/>
-    <tableColumn id="3" xr3:uid="{38D38EC1-1CB8-4866-98B7-F08695FA6E14}" name="PersNr"/>
+    <tableColumn id="3" xr3:uid="{38D38EC1-1CB8-4866-98B7-F08695FA6E14}" name="gehalt"/>
+    <tableColumn id="4" xr3:uid="{F587CDB2-C920-4B98-BF4D-CA1DA150DD71}" name="TelefonNummer"/>
+    <tableColumn id="5" xr3:uid="{4462FCA8-A52A-4E49-B7F8-5B2EBAD9249C}" name="Adresse"/>
+    <tableColumn id="6" xr3:uid="{2D9E3D4D-1D1A-4B5C-B1E5-670D680411E0}" name="Stadt"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -437,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A60BDEE-FC1C-44CF-87A6-B9879E0093AA}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,56 +466,70 @@
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
       </c>
       <c r="B2">
         <v>1234</v>
       </c>
       <c r="C2">
-        <v>1111</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>5678</v>
       </c>
       <c r="C3">
-        <v>2222</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>1234</v>
       </c>
       <c r="C4">
-        <v>3333</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>